--- a/Config/Datas/Game/Buff.xlsx
+++ b/Config/Datas/Game/Buff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\MonkeyKing\Config\Datas\Game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9114285F-FE61-4832-89C4-3EB8C9AC24C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E7507-C129-41E7-BC62-F253BFCA8266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>##</t>
   </si>
@@ -49,10 +49,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -61,44 +57,96 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list,int#ref=TbBuffTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff触发器索引</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>meta_buffs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff效果</t>
+    <t>##group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trigger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispel_level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration_ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间_毫秒,0就是瞬时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffTrigger.Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffEffect.Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击_物理伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术Lv.1_魔法伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件:附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DispelLevel</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>l</t>
+      <t>伤害:物理伤害,[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CAttack</t>
     </r>
     <r>
       <rPr>
@@ -110,20 +158,62 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ist,MetaBuffBase</t>
+      <t>]</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>##group</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
+    <r>
+      <t>伤害:魔法伤害,100*(1+[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMagicEnhance</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>])</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAddType#default=Replace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_layer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，5+2位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +252,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +275,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -200,13 +305,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +339,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,24 +708,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="25.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.875" style="1" customWidth="1"/>
-    <col min="8" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="39.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="72.375" style="1" customWidth="1"/>
+    <col min="12" max="17" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,118 +739,206 @@
       <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="2" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="1:17" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
-        <v>1002</v>
+        <v>10000001</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
+        <v>10000101</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/Game/Buff.xlsx
+++ b/Config/Datas/Game/Buff.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E7507-C129-41E7-BC62-F253BFCA8266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A034B2C-FA3E-412F-AFFD-B2A5E8F2C6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Buff" sheetId="1" r:id="rId1"/>
+    <sheet name="MetaBuff" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>##</t>
   </si>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>火球术Lv.1_魔法伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basic</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -216,12 +212,215 @@
     <t>id，5+2位</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>火球术Lv.2_魔法伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱驱散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>伤害:魔法伤害,120*(1+[</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMagicEnhance</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>])</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*fields</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+  </si>
+  <si>
+    <t>分割符</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>:,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发器基类</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffTrigger.Event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffEvent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff的生命周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffTrigger.Repeat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval_ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果基类</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffEffect.Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>伤害类型枚举</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric_formula</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值公式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,12 +433,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -261,8 +462,77 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +548,46 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,12 +629,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,9 +686,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -708,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -749,10 +1121,10 @@
         <v>17</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>11</v>
@@ -802,13 +1174,13 @@
         <v>2</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>4</v>
@@ -831,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -846,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>13</v>
@@ -898,8 +1270,8 @@
       <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>25</v>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -907,10 +1279,10 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -926,8 +1298,8 @@
       <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>25</v>
+      <c r="F7" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -935,10 +1307,38 @@
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B8" s="1">
+        <v>10000102</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -950,12 +1350,989 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="24.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
+    <col min="4" max="7" width="15" style="16" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="16" customWidth="1"/>
+    <col min="11" max="11" width="65.5" style="16" customWidth="1"/>
+    <col min="12" max="12" width="30.5" style="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="21"/>
+      <c r="K5" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="21"/>
+      <c r="K7" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="21"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="21"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="21"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="21"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A25" s="21"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="21"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="21"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="21"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="21"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="21"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="21"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="21"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J33" s="30"/>
+      <c r="K33" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="L33" s="30"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="30"/>
+      <c r="K34" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="30"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="30"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A37" s="30"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="30"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="30"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="30"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="30"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="30"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="30"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="30"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="30"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="30"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="30"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="30"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="30"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="30"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="30"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="30"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A58" s="30"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A59" s="30"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A60" s="30"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="30"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A61" s="30"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A62" s="30"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/Datas/Game/Buff.xlsx
+++ b/Config/Datas/Game/Buff.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A034B2C-FA3E-412F-AFFD-B2A5E8F2C6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91E8991-640C-4AC2-8727-EE3950DC5348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="15" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
     <sheet name="MetaBuff" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="BuffState" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
   <si>
     <t>##</t>
   </si>
@@ -415,12 +415,159 @@
     <t>数值公式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>*items</t>
+  </si>
+  <si>
+    <t>##+</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>是否为标志类
+即每个枚举项为标记，填数据时可以为A|B这样</t>
+  </si>
+  <si>
+    <t>枚举项是否唯一</t>
+  </si>
+  <si>
+    <t>枚举名</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>BuffState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Root</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invisible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强驱散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int#default=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffEffect.AttachState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,MetaBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*meta_buffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击Lv.1_眩晕和伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加状态:眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件:移除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffEffect.DetachState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除状态:眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害:物理伤害,200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +678,38 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -591,8 +768,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79992065187536243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -628,6 +817,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -640,7 +842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,9 +861,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -692,53 +891,113 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1080,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1091,12 +1350,12 @@
     <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="6" customWidth="1"/>
     <col min="5" max="5" width="30.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
     <col min="8" max="9" width="22.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="39.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="72.375" style="1" customWidth="1"/>
     <col min="12" max="17" width="10.5" style="1" customWidth="1"/>
   </cols>
@@ -1126,12 +1385,10 @@
       <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="J1" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="49"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -1145,14 +1402,14 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="3"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -1179,18 +1436,16 @@
       <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I3" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="51"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1214,7 +1469,7 @@
       <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -1236,26 +1491,30 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:17" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:17" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B6" s="1">
@@ -1264,7 +1523,7 @@
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1275,9 +1534,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
+      <c r="I6" s="4"/>
       <c r="J6" s="4" t="s">
         <v>25</v>
       </c>
@@ -1292,7 +1549,7 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1303,9 +1560,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="4">
-        <v>1</v>
-      </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1320,7 +1575,7 @@
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1331,9 +1586,7 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
+      <c r="I8" s="4"/>
       <c r="J8" s="4" t="s">
         <v>25</v>
       </c>
@@ -1341,7 +1594,54 @@
         <v>37</v>
       </c>
     </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B9" s="1">
+        <v>10000201</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="J11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1352,982 +1652,1006 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="24.5" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
-    <col min="4" max="7" width="15" style="16" customWidth="1"/>
-    <col min="8" max="8" width="19.625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="25.375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="16" customWidth="1"/>
-    <col min="11" max="11" width="65.5" style="16" customWidth="1"/>
-    <col min="12" max="12" width="30.5" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="27.875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="15" customWidth="1"/>
+    <col min="4" max="7" width="15" style="15" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="25.375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="15" customWidth="1"/>
+    <col min="11" max="11" width="65.5" style="15" customWidth="1"/>
+    <col min="12" max="12" width="30.5" style="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="19"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="17"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="23" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="L5" s="21"/>
+      <c r="L5" s="19"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="24"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22" t="s">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="23" t="s">
+      <c r="J7" s="19"/>
+      <c r="K7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="L7" s="21"/>
+      <c r="L7" s="19"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="21"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="21"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="21"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="19"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="21"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="19"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="19"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="21"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="19"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="21"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="21"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="19"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="19"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="21"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="21"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="19"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A25" s="21"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="21"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="19"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="21"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="19"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="21"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="19"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="21"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="19"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="21"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="19"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="21"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="19"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="21"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="19"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="28"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C33" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31" t="s">
+      <c r="D33" s="28"/>
+      <c r="E33" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31" t="s">
+      <c r="F33" s="28"/>
+      <c r="G33" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H33" s="30" t="s">
+      <c r="H33" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="I33" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="32" t="s">
+      <c r="J33" s="28"/>
+      <c r="K33" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="L33" s="30"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="30"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="30" t="s">
+      <c r="I34" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="32" t="s">
+      <c r="J34" s="28"/>
+      <c r="K34" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="L34" s="30"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="30"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="28"/>
+      <c r="E35" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I35" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J35" s="28"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="28"/>
       <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A37" s="30"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="28"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A38" s="30"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="28"/>
+      <c r="L38" s="28"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A40" s="30"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="28"/>
+      <c r="L40" s="28"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A45" s="30"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A46" s="30"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="30"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A47" s="30"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="30"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A50" s="30"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A51" s="30"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A52" s="30"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
+      <c r="A53" s="28"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="30"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
+      <c r="A54" s="28"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A56" s="30"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A57" s="30"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A58" s="30"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
+      <c r="A58" s="28"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="28"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A59" s="30"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
+      <c r="A59" s="28"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="28"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A61" s="30"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="28"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A62" s="30"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2341,12 +2665,1334 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="32"/>
+    <col min="2" max="2" width="26.375" style="44" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="22.25" style="32" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="32" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" style="32" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="32" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="0" style="32" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="44" customWidth="1"/>
+    <col min="9" max="9" width="19.625" style="44" customWidth="1"/>
+    <col min="10" max="10" width="24.75" style="32" customWidth="1"/>
+    <col min="11" max="11" width="22.625" style="44" customWidth="1"/>
+    <col min="12" max="12" width="54.25" style="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.15">
+      <c r="A3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J3" s="38"/>
+      <c r="K3" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="38"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="43"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="41"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="41"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="41"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="41"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="41"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="41"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" s="41"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="41"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
+    </row>
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="41"/>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="41"/>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A27" s="39"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="40"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="41"/>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="40"/>
+      <c r="L29" s="41"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="41"/>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A31" s="39"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="41"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="41"/>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A33" s="39"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="41"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="41"/>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A35" s="39"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="40"/>
+      <c r="L35" s="41"/>
+    </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="40"/>
+      <c r="L36" s="41"/>
+    </row>
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="40"/>
+      <c r="L37" s="41"/>
+    </row>
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="40"/>
+      <c r="L38" s="41"/>
+    </row>
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="41"/>
+    </row>
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="41"/>
+    </row>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="41"/>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="41"/>
+    </row>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="41"/>
+    </row>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="41"/>
+    </row>
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="41"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A46" s="39"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="41"/>
+    </row>
+    <row r="47" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="40"/>
+      <c r="L47" s="41"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A48" s="39"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="40"/>
+      <c r="L48" s="41"/>
+    </row>
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A49" s="39"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="40"/>
+      <c r="L49" s="41"/>
+    </row>
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A50" s="39"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="40"/>
+      <c r="L50" s="41"/>
+    </row>
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="41"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="40"/>
+      <c r="L52" s="41"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A53" s="39"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="40"/>
+      <c r="L53" s="41"/>
+    </row>
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A54" s="39"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="41"/>
+    </row>
+    <row r="55" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A55" s="39"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="40"/>
+      <c r="L55" s="41"/>
+    </row>
+    <row r="56" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A56" s="39"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="40"/>
+      <c r="L56" s="41"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A57" s="39"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="41"/>
+    </row>
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A58" s="39"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="40"/>
+      <c r="L58" s="41"/>
+    </row>
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A59" s="39"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="40"/>
+      <c r="L59" s="41"/>
+    </row>
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A60" s="39"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="40"/>
+      <c r="L60" s="41"/>
+    </row>
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A61" s="39"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="40"/>
+      <c r="L61" s="41"/>
+    </row>
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A62" s="39"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="41"/>
+    </row>
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A63" s="39"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="41"/>
+    </row>
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A64" s="39"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="41"/>
+    </row>
+    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A65" s="39"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="41"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A66" s="39"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="41"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A67" s="39"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="41"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A68" s="39"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="41"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A69" s="39"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="41"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A70" s="39"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="41"/>
+    </row>
+    <row r="71" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A71" s="39"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="43"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="40"/>
+      <c r="L71" s="41"/>
+    </row>
+    <row r="72" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A72" s="39"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="40"/>
+      <c r="L72" s="41"/>
+    </row>
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A73" s="39"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="40"/>
+      <c r="L73" s="41"/>
+    </row>
+    <row r="74" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A74" s="39"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="40"/>
+      <c r="L74" s="41"/>
+    </row>
+    <row r="75" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A75" s="39"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="40"/>
+      <c r="L75" s="41"/>
+    </row>
+    <row r="76" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A76" s="39"/>
+      <c r="B76" s="40"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="43"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="41"/>
+    </row>
+    <row r="77" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A77" s="39"/>
+      <c r="B77" s="40"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="41"/>
+    </row>
+    <row r="78" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A78" s="39"/>
+      <c r="B78" s="40"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="43"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="41"/>
+    </row>
+    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A79" s="39"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="43"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="40"/>
+      <c r="L79" s="41"/>
+    </row>
+    <row r="80" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A80" s="39"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="43"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="40"/>
+      <c r="L80" s="41"/>
+    </row>
+    <row r="81" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A81" s="39"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="41"/>
+    </row>
+    <row r="82" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A82" s="39"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="40"/>
+      <c r="L82" s="41"/>
+    </row>
+    <row r="83" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A83" s="39"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="43"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="40"/>
+      <c r="L83" s="41"/>
+    </row>
+    <row r="84" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A84" s="39"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="43"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="41"/>
+    </row>
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A85" s="39"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="40"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="40"/>
+      <c r="L85" s="41"/>
+    </row>
+    <row r="86" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A86" s="39"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="40"/>
+      <c r="I86" s="43"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="40"/>
+      <c r="L86" s="41"/>
+    </row>
+    <row r="87" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A87" s="39"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="40"/>
+      <c r="I87" s="43"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="40"/>
+      <c r="L87" s="41"/>
+    </row>
+    <row r="88" spans="1:12" ht="15" x14ac:dyDescent="0.15">
+      <c r="A88" s="39"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="43"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/Datas/Game/Buff.xlsx
+++ b/Config/Datas/Game/Buff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91E8991-640C-4AC2-8727-EE3950DC5348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C097A3C3-5E21-4A2E-997F-C77291A125F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="118">
   <si>
     <t>##</t>
   </si>
@@ -129,8 +129,352 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>add_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加方式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAddType#default=Replace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_layer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>叠加层数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，5+2位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球术Lv.2_魔法伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱驱散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>alias</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*fields</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+  </si>
+  <si>
+    <t>分割符</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>:,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>伤害:物理伤害,[</t>
+      <t>Buff</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>触发器基类</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffTrigger.Event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff_event</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffEvent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buff的生命周期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffTrigger.Repeat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>interval_ms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毫秒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Buff</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果基类</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffEffect.Damage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType</t>
+  </si>
+  <si>
+    <t>伤害类型枚举</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numeric_formula</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值公式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>flags</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>*items</t>
+  </si>
+  <si>
+    <t>##+</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>是否为标志类
+即每个枚举项为标记，填数据时可以为A|B这样</t>
+  </si>
+  <si>
+    <t>枚举项是否唯一</t>
+  </si>
+  <si>
+    <t>枚举名</t>
+  </si>
+  <si>
+    <t>别名</t>
+  </si>
+  <si>
+    <t>BuffState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Root</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silence</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉默</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invisible</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强驱散</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int#default=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffEffect.AttachState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,MetaBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*meta_buffs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛击Lv.1_眩晕和伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件:移除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MetaBuffEffect.DetachState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>temp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1,物理伤害,[</t>
     </r>
     <r>
       <rPr>
@@ -160,7 +504,7 @@
   </si>
   <si>
     <r>
-      <t>伤害:魔法伤害,100*(1+[</t>
+      <t>1,魔法伤害,100*(1+[</t>
     </r>
     <r>
       <rPr>
@@ -189,40 +533,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>add_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叠加方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffAddType#default=Replace</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_layer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>叠加层数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id，5+2位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球术Lv.2_魔法伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弱驱散</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t>伤害:魔法伤害,120*(1+[</t>
+      <t>1,魔法伤害,120*(1+[</t>
     </r>
     <r>
       <rPr>
@@ -251,315 +563,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>##var</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>sep</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>alias</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*fields</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>分割符</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>:,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Buff</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>触发器基类</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MetaBuffTrigger.Event</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff_event</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffEvent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buff的生命周期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MetaBuffTrigger.Repeat</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>interval_ms</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>毫秒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Buff</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>效果基类</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MetaBuffEffect.Damage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageType</t>
-  </si>
-  <si>
-    <t>伤害类型枚举</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>numeric_formula</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值公式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>flags</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>*items</t>
-  </si>
-  <si>
-    <t>##+</t>
-  </si>
-  <si>
-    <t>alias</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>是否为标志类
-即每个枚举项为标记，填数据时可以为A|B这样</t>
-  </si>
-  <si>
-    <t>枚举项是否唯一</t>
-  </si>
-  <si>
-    <t>枚举名</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>BuffState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>眩晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Root</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>缠绕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silence</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉默</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invincible</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invisible</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐身</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>强驱散</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int#default=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MetaBuffEffect.AttachState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list,MetaBuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*meta_buffs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛击Lv.1_眩晕和伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加状态:眩晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件:移除</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MetaBuffEffect.DetachState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>state</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除状态:眩晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害:物理伤害,200</t>
+    <t>1,眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,物理伤害,200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -781,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -830,6 +838,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -842,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -998,6 +1017,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1339,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1355,12 +1386,12 @@
     <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
     <col min="8" max="9" width="22.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="72.375" style="1" customWidth="1"/>
-    <col min="12" max="17" width="10.5" style="1" customWidth="1"/>
+    <col min="10" max="11" width="30.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="72.375" style="1" customWidth="1"/>
+    <col min="13" max="18" width="10.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,23 +1411,24 @@
         <v>17</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J1" s="50" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="K1" s="52"/>
+      <c r="L1" s="49"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R1" s="2"/>
+    </row>
+    <row r="2" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -1409,15 +1441,16 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="2"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="R2" s="2"/>
+    </row>
+    <row r="3" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1437,28 +1470,29 @@
         <v>4</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J3" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="51"/>
-      <c r="L3" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="K3" s="52"/>
+      <c r="L3" s="51"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="27" x14ac:dyDescent="0.15">
+      <c r="R3" s="2"/>
+    </row>
+    <row r="4" spans="1:18" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1473,90 +1507,91 @@
         <v>18</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="2"/>
+      <c r="L4" s="49"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R4" s="2"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B6" s="1">
+      <c r="L5" s="55"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B7" s="1">
         <v>10000001</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B7" s="1">
-        <v>10000101</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1564,25 +1599,28 @@
       <c r="J7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="K7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B8" s="1">
-        <v>10000102</v>
+        <v>10000101</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1591,56 +1629,99 @@
         <v>25</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B9" s="1">
+        <v>10000102</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B10" s="1">
         <v>10000201</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="1">
         <v>1000</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+        <v>101</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="J11" s="1" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>114</v>
+        <v>67</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="J12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
+  <mergeCells count="5">
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1652,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1671,28 +1752,28 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="31" t="s">
         <v>42</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>45</v>
       </c>
       <c r="I1" s="31"/>
       <c r="J1" s="31"/>
@@ -1701,22 +1782,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
@@ -1724,26 +1805,26 @@
         <v>0</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>54</v>
       </c>
       <c r="L3" s="16"/>
     </row>
@@ -1754,10 +1835,10 @@
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
@@ -1770,26 +1851,26 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="19"/>
       <c r="B5" s="19" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J5" s="19"/>
       <c r="K5" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L5" s="19"/>
     </row>
@@ -1810,26 +1891,26 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I7" s="19" t="s">
         <v>4</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L7" s="19"/>
     </row>
@@ -2176,15 +2257,19 @@
       </c>
       <c r="C32" s="26"/>
       <c r="D32" s="26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
+      <c r="H32" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>4</v>
+      </c>
       <c r="J32" s="26"/>
       <c r="K32" s="27"/>
       <c r="L32" s="26"/>
@@ -2192,28 +2277,28 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D33" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="D33" s="29"/>
       <c r="E33" s="29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F33" s="28"/>
       <c r="G33" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J33" s="28"/>
       <c r="K33" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L33" s="28"/>
     </row>
@@ -2226,38 +2311,38 @@
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J34" s="28"/>
       <c r="K34" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L34" s="28"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="28"/>
       <c r="B35" s="28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D35" s="28"/>
       <c r="E35" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F35" s="28"/>
       <c r="G35" s="29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H35" s="28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J35" s="28"/>
       <c r="K35" s="30"/>
@@ -2266,24 +2351,24 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="28"/>
       <c r="B36" s="28" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D36" s="28"/>
       <c r="E36" s="29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F36" s="28"/>
       <c r="G36" s="29" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H36" s="28" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J36" s="28"/>
       <c r="K36" s="30"/>
@@ -2692,25 +2777,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="G1" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="35" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I1" s="35"/>
       <c r="J1" s="35"/>
@@ -2719,7 +2804,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
@@ -2728,19 +2813,19 @@
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
       <c r="H2" s="33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L2" s="34" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="54" x14ac:dyDescent="0.15">
@@ -2748,33 +2833,33 @@
         <v>0</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" s="38"/>
       <c r="D3" s="37" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="37" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J3" s="38"/>
       <c r="K3" s="37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="39"/>
       <c r="B4" s="40" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -2782,11 +2867,11 @@
         <v>1</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G4" s="41"/>
       <c r="H4" s="40" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I4" s="43"/>
       <c r="J4" s="41"/>
@@ -2802,10 +2887,10 @@
       <c r="F5" s="42"/>
       <c r="G5" s="41"/>
       <c r="H5" s="40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I5" s="46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J5" s="41"/>
       <c r="K5" s="40"/>
@@ -2820,10 +2905,10 @@
       <c r="F6" s="42"/>
       <c r="G6" s="41"/>
       <c r="H6" s="40" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I6" s="46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J6" s="41"/>
       <c r="K6" s="40"/>
@@ -2838,10 +2923,10 @@
       <c r="F7" s="42"/>
       <c r="G7" s="41"/>
       <c r="H7" s="40" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I7" s="46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J7" s="41"/>
       <c r="K7" s="42"/>
@@ -2856,10 +2941,10 @@
       <c r="F8" s="42"/>
       <c r="G8" s="41"/>
       <c r="H8" s="40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I8" s="46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J8" s="41"/>
       <c r="K8" s="42"/>
@@ -2874,10 +2959,10 @@
       <c r="F9" s="42"/>
       <c r="G9" s="41"/>
       <c r="H9" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J9" s="41"/>
       <c r="K9" s="40"/>

--- a/Config/Datas/Game/Buff.xlsx
+++ b/Config/Datas/Game/Buff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkPlace\Projects\AntiMage\Config\Datas\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76438CA-90BE-4CE4-AFB4-7A1216855760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083DD325-89FC-4CF2-9F0B-9C038EAA5A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,8 +457,24 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1,眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_layer#default=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuffAddType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_type#default=Replace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>1,物理伤害,[</t>
+      <t>1,魔法伤害,100*(1+【</t>
     </r>
     <r>
       <rPr>
@@ -470,7 +486,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CAttack</t>
+      <t>C_MagicEnhance</t>
     </r>
     <r>
       <rPr>
@@ -482,13 +498,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>]</t>
+      <t>】)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1,魔法伤害,100*(1+[</t>
+      <t>1,魔法伤害,120*(1+【</t>
     </r>
     <r>
       <rPr>
@@ -500,7 +516,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CMagicEnhance</t>
+      <t>C_MagicEnhance</t>
     </r>
     <r>
       <rPr>
@@ -512,13 +528,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>])</t>
+      <t>】)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>1,魔法伤害,120*(1+[</t>
+      <t>1,物理伤害,【</t>
     </r>
     <r>
       <rPr>
@@ -530,7 +546,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CMagicEnhance</t>
+      <t>C_Attack</t>
     </r>
     <r>
       <rPr>
@@ -542,28 +558,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>])</t>
+      <t>】*2 + 15</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,眩晕</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,物理伤害,200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_layer#default=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BuffAddType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>add_type#default=Replace</t>
+    <t>1,物理伤害,【C_Attack】+50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1375,7 +1375,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1412,10 +1412,10 @@
         <v>17</v>
       </c>
       <c r="H1" s="46" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I1" s="45" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="J1" s="51" t="s">
         <v>100</v>
@@ -1459,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I3" s="44" t="s">
         <v>4</v>
@@ -1568,7 +1568,7 @@
         <v>64</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1597,7 +1597,7 @@
         <v>64</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1626,7 +1626,7 @@
         <v>64</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1655,7 +1655,7 @@
         <v>97</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1666,7 +1666,7 @@
         <v>64</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1677,7 +1677,7 @@
         <v>104</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
